--- a/Baidu Baike administrative accounts.xlsx
+++ b/Baidu Baike administrative accounts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="338">
   <si>
     <t>冷威龙</t>
   </si>
@@ -375,741 +375,742 @@
     <t>以火攻火456</t>
   </si>
   <si>
+    <t>瑾年落2</t>
+  </si>
+  <si>
+    <t>御笔宸翰</t>
+  </si>
+  <si>
+    <t>zyj890104</t>
+  </si>
+  <si>
+    <t>fengw6772</t>
+  </si>
+  <si>
+    <t>东京没有下雨</t>
+  </si>
+  <si>
+    <t>西瓜小余</t>
+  </si>
+  <si>
+    <t>银毛熊</t>
+  </si>
+  <si>
+    <t>苏坡旧旧</t>
+  </si>
+  <si>
+    <t>沿海哋呆</t>
+  </si>
+  <si>
+    <t>zoujunchuan198</t>
+  </si>
+  <si>
+    <t>如动心动</t>
+  </si>
+  <si>
+    <t>1988abc8</t>
+  </si>
+  <si>
+    <t>云梦璎</t>
+  </si>
+  <si>
+    <t>椿兮如霖</t>
+  </si>
+  <si>
+    <t>24680zpzyh</t>
+  </si>
+  <si>
+    <t>JX0515</t>
+  </si>
+  <si>
+    <t>蓝小沁a</t>
+  </si>
+  <si>
+    <t>Y_suer</t>
+  </si>
+  <si>
+    <t>z84668520</t>
+  </si>
+  <si>
+    <t>爱了吗22</t>
+  </si>
+  <si>
+    <t>时间地点8</t>
+  </si>
+  <si>
+    <t>clairelutianyi</t>
+  </si>
+  <si>
+    <t>轩辕冰烆</t>
+  </si>
+  <si>
+    <t>烨伟在路上</t>
+  </si>
+  <si>
+    <t>万古昌清</t>
+  </si>
+  <si>
+    <t>御景江湖</t>
+  </si>
+  <si>
+    <t>商务BAR</t>
+  </si>
+  <si>
+    <t>经济界91</t>
+  </si>
+  <si>
+    <t>温尔mmx</t>
+  </si>
+  <si>
+    <t>下个转角的相遇</t>
+  </si>
+  <si>
+    <t>大罗与互联网</t>
+  </si>
+  <si>
+    <t>DK熙11</t>
+  </si>
+  <si>
+    <t>fastwalk</t>
+  </si>
+  <si>
+    <t>初级评审（实习）</t>
+  </si>
+  <si>
+    <t>周大头</t>
+  </si>
+  <si>
+    <t>冷魄year</t>
+  </si>
+  <si>
+    <t>Top__Lee</t>
+  </si>
+  <si>
+    <t>地狱凯撒亮OTK</t>
+  </si>
+  <si>
+    <t>念靖晴</t>
+  </si>
+  <si>
+    <t>tanton</t>
+  </si>
+  <si>
+    <t>gfy326956493</t>
+  </si>
+  <si>
+    <t>官方人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科骏马</t>
+  </si>
+  <si>
+    <t>分类组长</t>
+  </si>
+  <si>
+    <t>朌月秋枫</t>
+  </si>
+  <si>
+    <t>东篱小菊</t>
+  </si>
+  <si>
+    <t>可乐猪1</t>
+  </si>
+  <si>
+    <t>LP669883</t>
+  </si>
+  <si>
+    <t>窦氏一家亲</t>
+  </si>
+  <si>
+    <t>废艺斋主人</t>
+  </si>
+  <si>
+    <t>xueyulau</t>
+  </si>
+  <si>
+    <t>yang363006242</t>
+  </si>
+  <si>
+    <t>凌风而翔</t>
+  </si>
+  <si>
+    <t>maheyi</t>
+  </si>
+  <si>
+    <t>scn5050</t>
+  </si>
+  <si>
+    <t>西风不猛烈</t>
+  </si>
+  <si>
+    <t>Ladycjx</t>
+  </si>
+  <si>
+    <t>中原七匹狼</t>
+  </si>
+  <si>
+    <t>星期兔子</t>
+  </si>
+  <si>
+    <t>人生无限</t>
+  </si>
+  <si>
+    <t>东油油工</t>
+  </si>
+  <si>
+    <t>神医华佗再世</t>
+  </si>
+  <si>
+    <t>Nicholas_wen</t>
+  </si>
+  <si>
+    <t>李子维修</t>
+  </si>
+  <si>
+    <t>亡灵〓巫师</t>
+  </si>
+  <si>
+    <t>夏桑菊666</t>
+  </si>
+  <si>
+    <t>百科老狼</t>
+  </si>
+  <si>
+    <t>百科怀念</t>
+  </si>
+  <si>
+    <t>学识天下</t>
+  </si>
+  <si>
+    <t>ziliao311</t>
+  </si>
+  <si>
+    <t>回到唐朝去散步</t>
+  </si>
+  <si>
+    <t>加速度1014</t>
+  </si>
+  <si>
+    <t>cjycp32</t>
+  </si>
+  <si>
+    <t>居家小男VIP</t>
+  </si>
+  <si>
+    <t>booksheart</t>
+  </si>
+  <si>
+    <t>空随风</t>
+  </si>
+  <si>
+    <t>U9youxi</t>
+  </si>
+  <si>
+    <t>Uwonderful9</t>
+  </si>
+  <si>
+    <t>东方梦阳</t>
+  </si>
+  <si>
+    <t>海天寒夜</t>
+  </si>
+  <si>
+    <t>xumumu007</t>
+  </si>
+  <si>
+    <t>Yc小牧</t>
+  </si>
+  <si>
+    <t>袁文贵</t>
+  </si>
+  <si>
+    <t>零域ong</t>
+  </si>
+  <si>
+    <t>菲莉茜娅</t>
+  </si>
+  <si>
+    <t>记者陈述</t>
+  </si>
+  <si>
+    <t>昕升</t>
+  </si>
+  <si>
+    <t>an_hao</t>
+  </si>
+  <si>
+    <t>时间让感情流逝</t>
+  </si>
+  <si>
+    <t>非著名书法家</t>
+  </si>
+  <si>
+    <t>梦de思念</t>
+  </si>
+  <si>
+    <t>大地102</t>
+  </si>
+  <si>
+    <t>张之航</t>
+  </si>
+  <si>
+    <t>嘉琉璃</t>
+  </si>
+  <si>
+    <t>无花果花子</t>
+  </si>
+  <si>
+    <t>雨音雪子</t>
+  </si>
+  <si>
+    <t>谭晶521</t>
+  </si>
+  <si>
+    <t>小周—小王</t>
+  </si>
+  <si>
+    <t>0偃月0</t>
+  </si>
+  <si>
+    <t>注册一个幸福</t>
+  </si>
+  <si>
+    <t>吾有所求</t>
+  </si>
+  <si>
+    <t>mg乖乖鱼</t>
+  </si>
+  <si>
+    <t>ytou_cool</t>
+  </si>
+  <si>
+    <t>felix5292</t>
+  </si>
+  <si>
+    <t>木の偶然</t>
+  </si>
+  <si>
+    <t>金钻世家</t>
+  </si>
+  <si>
+    <t>cxh1025</t>
+  </si>
+  <si>
+    <t>baikerenjia</t>
+  </si>
+  <si>
+    <t>小俏不俏</t>
+  </si>
+  <si>
+    <t>ballball22</t>
+  </si>
+  <si>
+    <t>圆々梦</t>
+  </si>
+  <si>
+    <t>2qianyuqianxun</t>
+  </si>
+  <si>
+    <t>gailei1981</t>
+  </si>
+  <si>
+    <t>wanstea</t>
+  </si>
+  <si>
+    <t>心随夜静</t>
+  </si>
+  <si>
+    <t>医师无国界</t>
+  </si>
+  <si>
+    <t>下下wt</t>
+  </si>
+  <si>
+    <t>wwh0629</t>
+  </si>
+  <si>
+    <t>beckhamwt22</t>
+  </si>
+  <si>
+    <t>流星不灭</t>
+  </si>
+  <si>
+    <t>羲露的忆雨</t>
+  </si>
+  <si>
+    <t>du小炮兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du小象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悇生婼夢</t>
+  </si>
+  <si>
+    <t>摩羯落风</t>
+  </si>
+  <si>
+    <t>七水元素</t>
+  </si>
+  <si>
+    <t>天行如一</t>
+  </si>
+  <si>
+    <t>Owen_Wong</t>
+  </si>
+  <si>
+    <t>南山之江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛敬伟i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残轩阁主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fzlins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leesunky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辰猫暮雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我乃野云鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream_Riser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志锋的世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东大机械a尊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿茶828</t>
+  </si>
+  <si>
+    <t>wu9732024</t>
+  </si>
+  <si>
+    <t>fyz搵笺临嵩</t>
+  </si>
+  <si>
+    <t>a948676940</t>
+  </si>
+  <si>
+    <t>99求知</t>
+  </si>
+  <si>
+    <t>123照相b</t>
+  </si>
+  <si>
+    <t>睡卧沙场</t>
+  </si>
+  <si>
+    <t>話說當年</t>
+  </si>
+  <si>
+    <t>哥舒夜带刀1</t>
+  </si>
+  <si>
+    <t>非凡之梦乐园</t>
+  </si>
+  <si>
+    <t>爱孤存</t>
+  </si>
+  <si>
+    <t>SH沙木</t>
+  </si>
+  <si>
+    <t>Eminem丶路飞</t>
+  </si>
+  <si>
+    <t>″偶爾窒息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至帅硕心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soul_冰魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风亦客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林正英007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky天天向上zxc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du花易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du南开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhyyff4444</t>
+  </si>
+  <si>
+    <t>好突然凑三星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retingber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅俗共赏2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DanielWang314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vv龙之怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戀愛智多星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家宅de扫把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lihongbing1989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔界炼狱t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐之啨myth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月明山谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麒涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcpgd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星哥苹果妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科交通组委员会成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vinceleent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaoyuhe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊法德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科交通组核心成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乄风晹ヤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ono_莱5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非蝌蚪团成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理组评审专员</t>
+  </si>
+  <si>
+    <t>百科地理组正式成员</t>
+  </si>
+  <si>
+    <t>百科地理组正式组员</t>
+  </si>
+  <si>
+    <t>蝌蚪团成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明伶俐的小兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345zhaogang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛献计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zousx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大东至3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srk1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花阳184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q7710209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゞ飘♀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦春来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪村139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静心待不悔不弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加SB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科专ye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琳儿河畔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理组评审专员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科地理组组长</t>
+  </si>
+  <si>
+    <t>百科科学组评审</t>
+  </si>
+  <si>
+    <t>zhangjunpan007</t>
+  </si>
+  <si>
+    <t>原明星团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审团成员</t>
+  </si>
+  <si>
+    <t>已开除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍地丶菊花</t>
+  </si>
+  <si>
+    <t>百科科学组正式组员</t>
+  </si>
+  <si>
+    <t>百科科学组正式组员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲举硕士</t>
+  </si>
+  <si>
+    <t>红枫没红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du小虐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du小常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>″偶尔窒息</t>
-  </si>
-  <si>
-    <t>瑾年落2</t>
-  </si>
-  <si>
-    <t>御笔宸翰</t>
-  </si>
-  <si>
-    <t>zyj890104</t>
-  </si>
-  <si>
-    <t>fengw6772</t>
-  </si>
-  <si>
-    <t>东京没有下雨</t>
-  </si>
-  <si>
-    <t>西瓜小余</t>
-  </si>
-  <si>
-    <t>银毛熊</t>
-  </si>
-  <si>
-    <t>苏坡旧旧</t>
-  </si>
-  <si>
-    <t>沿海哋呆</t>
-  </si>
-  <si>
-    <t>zoujunchuan198</t>
-  </si>
-  <si>
-    <t>如动心动</t>
-  </si>
-  <si>
-    <t>1988abc8</t>
-  </si>
-  <si>
-    <t>云梦璎</t>
-  </si>
-  <si>
-    <t>椿兮如霖</t>
-  </si>
-  <si>
-    <t>24680zpzyh</t>
-  </si>
-  <si>
-    <t>JX0515</t>
-  </si>
-  <si>
-    <t>蓝小沁a</t>
-  </si>
-  <si>
-    <t>Y_suer</t>
-  </si>
-  <si>
-    <t>z84668520</t>
-  </si>
-  <si>
-    <t>爱了吗22</t>
-  </si>
-  <si>
-    <t>时间地点8</t>
-  </si>
-  <si>
-    <t>clairelutianyi</t>
-  </si>
-  <si>
-    <t>轩辕冰烆</t>
-  </si>
-  <si>
-    <t>烨伟在路上</t>
-  </si>
-  <si>
-    <t>万古昌清</t>
-  </si>
-  <si>
-    <t>御景江湖</t>
-  </si>
-  <si>
-    <t>商务BAR</t>
-  </si>
-  <si>
-    <t>经济界91</t>
-  </si>
-  <si>
-    <t>温尔mmx</t>
-  </si>
-  <si>
-    <t>下个转角的相遇</t>
-  </si>
-  <si>
-    <t>大罗与互联网</t>
-  </si>
-  <si>
-    <t>DK熙11</t>
-  </si>
-  <si>
-    <t>fastwalk</t>
-  </si>
-  <si>
-    <t>初级评审（实习）</t>
-  </si>
-  <si>
-    <t>周大头</t>
-  </si>
-  <si>
-    <t>冷魄year</t>
-  </si>
-  <si>
-    <t>Top__Lee</t>
-  </si>
-  <si>
-    <t>地狱凯撒亮OTK</t>
-  </si>
-  <si>
-    <t>念靖晴</t>
-  </si>
-  <si>
-    <t>tanton</t>
-  </si>
-  <si>
-    <t>gfy326956493</t>
-  </si>
-  <si>
-    <t>官方人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科骏马</t>
-  </si>
-  <si>
-    <t>分类组长</t>
-  </si>
-  <si>
-    <t>朌月秋枫</t>
-  </si>
-  <si>
-    <t>东篱小菊</t>
-  </si>
-  <si>
-    <t>可乐猪1</t>
-  </si>
-  <si>
-    <t>LP669883</t>
-  </si>
-  <si>
-    <t>窦氏一家亲</t>
-  </si>
-  <si>
-    <t>废艺斋主人</t>
-  </si>
-  <si>
-    <t>xueyulau</t>
-  </si>
-  <si>
-    <t>yang363006242</t>
-  </si>
-  <si>
-    <t>凌风而翔</t>
-  </si>
-  <si>
-    <t>maheyi</t>
-  </si>
-  <si>
-    <t>scn5050</t>
-  </si>
-  <si>
-    <t>西风不猛烈</t>
-  </si>
-  <si>
-    <t>Ladycjx</t>
-  </si>
-  <si>
-    <t>中原七匹狼</t>
-  </si>
-  <si>
-    <t>星期兔子</t>
-  </si>
-  <si>
-    <t>人生无限</t>
-  </si>
-  <si>
-    <t>东油油工</t>
-  </si>
-  <si>
-    <t>神医华佗再世</t>
-  </si>
-  <si>
-    <t>Nicholas_wen</t>
-  </si>
-  <si>
-    <t>李子维修</t>
-  </si>
-  <si>
-    <t>亡灵〓巫师</t>
-  </si>
-  <si>
-    <t>夏桑菊666</t>
-  </si>
-  <si>
-    <t>百科老狼</t>
-  </si>
-  <si>
-    <t>百科怀念</t>
-  </si>
-  <si>
-    <t>学识天下</t>
-  </si>
-  <si>
-    <t>ziliao311</t>
-  </si>
-  <si>
-    <t>回到唐朝去散步</t>
-  </si>
-  <si>
-    <t>加速度1014</t>
-  </si>
-  <si>
-    <t>cjycp32</t>
-  </si>
-  <si>
-    <t>居家小男VIP</t>
-  </si>
-  <si>
-    <t>booksheart</t>
-  </si>
-  <si>
-    <t>空随风</t>
-  </si>
-  <si>
-    <t>U9youxi</t>
-  </si>
-  <si>
-    <t>Uwonderful9</t>
-  </si>
-  <si>
-    <t>东方梦阳</t>
-  </si>
-  <si>
-    <t>海天寒夜</t>
-  </si>
-  <si>
-    <t>xumumu007</t>
-  </si>
-  <si>
-    <t>Yc小牧</t>
-  </si>
-  <si>
-    <t>袁文贵</t>
-  </si>
-  <si>
-    <t>零域ong</t>
-  </si>
-  <si>
-    <t>菲莉茜娅</t>
-  </si>
-  <si>
-    <t>记者陈述</t>
-  </si>
-  <si>
-    <t>昕升</t>
-  </si>
-  <si>
-    <t>an_hao</t>
-  </si>
-  <si>
-    <t>时间让感情流逝</t>
-  </si>
-  <si>
-    <t>非著名书法家</t>
-  </si>
-  <si>
-    <t>梦de思念</t>
-  </si>
-  <si>
-    <t>大地102</t>
-  </si>
-  <si>
-    <t>张之航</t>
-  </si>
-  <si>
-    <t>嘉琉璃</t>
-  </si>
-  <si>
-    <t>无花果花子</t>
-  </si>
-  <si>
-    <t>雨音雪子</t>
-  </si>
-  <si>
-    <t>谭晶521</t>
-  </si>
-  <si>
-    <t>小周—小王</t>
-  </si>
-  <si>
-    <t>0偃月0</t>
-  </si>
-  <si>
-    <t>注册一个幸福</t>
-  </si>
-  <si>
-    <t>吾有所求</t>
-  </si>
-  <si>
-    <t>mg乖乖鱼</t>
-  </si>
-  <si>
-    <t>ytou_cool</t>
-  </si>
-  <si>
-    <t>felix5292</t>
-  </si>
-  <si>
-    <t>木の偶然</t>
-  </si>
-  <si>
-    <t>金钻世家</t>
-  </si>
-  <si>
-    <t>cxh1025</t>
-  </si>
-  <si>
-    <t>baikerenjia</t>
-  </si>
-  <si>
-    <t>小俏不俏</t>
-  </si>
-  <si>
-    <t>ballball22</t>
-  </si>
-  <si>
-    <t>圆々梦</t>
-  </si>
-  <si>
-    <t>2qianyuqianxun</t>
-  </si>
-  <si>
-    <t>gailei1981</t>
-  </si>
-  <si>
-    <t>wanstea</t>
-  </si>
-  <si>
-    <t>心随夜静</t>
-  </si>
-  <si>
-    <t>医师无国界</t>
-  </si>
-  <si>
-    <t>下下wt</t>
-  </si>
-  <si>
-    <t>wwh0629</t>
-  </si>
-  <si>
-    <t>beckhamwt22</t>
-  </si>
-  <si>
-    <t>流星不灭</t>
-  </si>
-  <si>
-    <t>羲露的忆雨</t>
-  </si>
-  <si>
-    <t>du小炮兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>du小象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悇生婼夢</t>
-  </si>
-  <si>
-    <t>摩羯落风</t>
-  </si>
-  <si>
-    <t>七水元素</t>
-  </si>
-  <si>
-    <t>天行如一</t>
-  </si>
-  <si>
-    <t>Owen_Wong</t>
-  </si>
-  <si>
-    <t>南山之江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛敬伟i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>残轩阁主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fzlins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leesunky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辰猫暮雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我乃野云鹤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dream_Riser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>志锋的世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东大机械a尊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿茶828</t>
-  </si>
-  <si>
-    <t>wu9732024</t>
-  </si>
-  <si>
-    <t>fyz搵笺临嵩</t>
-  </si>
-  <si>
-    <t>a948676940</t>
-  </si>
-  <si>
-    <t>99求知</t>
-  </si>
-  <si>
-    <t>123照相b</t>
-  </si>
-  <si>
-    <t>睡卧沙场</t>
-  </si>
-  <si>
-    <t>話說當年</t>
-  </si>
-  <si>
-    <t>哥舒夜带刀1</t>
-  </si>
-  <si>
-    <t>非凡之梦乐园</t>
-  </si>
-  <si>
-    <t>爱孤存</t>
-  </si>
-  <si>
-    <t>SH沙木</t>
-  </si>
-  <si>
-    <t>Eminem丶路飞</t>
-  </si>
-  <si>
-    <t>″偶爾窒息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至帅硕心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soul_冰魄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清风亦客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林正英007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sky天天向上zxc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>du花易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>du南开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hhyyff4444</t>
-  </si>
-  <si>
-    <t>好突然凑三星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retingber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅俗共赏2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DanielWang314</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vv龙之怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戀愛智多星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家宅de扫把</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lihongbing1989</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔界炼狱t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐之啨myth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月明山谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小麒涵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcpgd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星哥苹果妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科交通组委员会成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vinceleent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoxiaoyuhe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊法德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科交通组核心成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乄风晹ヤ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ono_莱5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要馒头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非蝌蚪团成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地理组评审专员</t>
-  </si>
-  <si>
-    <t>百科地理组正式成员</t>
-  </si>
-  <si>
-    <t>百科地理组正式组员</t>
-  </si>
-  <si>
-    <t>蝌蚪团成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聪明伶俐的小兔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345zhaogang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科Dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛献计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zousx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大东至3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>srk1012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花阳184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q7710209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ゞ飘♀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦春来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪村139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小尺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静心待不悔不弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加SB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科专ye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琳儿河畔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地理组评审专员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科地理组组长</t>
-  </si>
-  <si>
-    <t>百科科学组评审</t>
-  </si>
-  <si>
-    <t>zhangjunpan007</t>
-  </si>
-  <si>
-    <t>原明星团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审团成员</t>
-  </si>
-  <si>
-    <t>已开除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍地丶菊花</t>
-  </si>
-  <si>
-    <t>百科科学组正式组员</t>
-  </si>
-  <si>
-    <t>百科科学组正式组员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仲举硕士</t>
-  </si>
-  <si>
-    <t>红枫没红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>du小虐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>du小常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1536,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A9146-6E3E-4F20-9521-903DC7771541}">
   <dimension ref="A1:G377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="Q91" sqref="Q91"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="N309" sqref="N309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1569,10 +1570,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1583,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -1595,16 +1596,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1612,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1</v>
@@ -1624,10 +1625,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
@@ -1649,10 +1650,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1674,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -1686,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
@@ -1699,13 +1700,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1713,7 +1714,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1</v>
@@ -1750,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>53</v>
@@ -1788,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
@@ -1814,10 +1815,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -1826,7 +1827,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1</v>
@@ -1838,7 +1839,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>53</v>
@@ -1850,7 +1851,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>53</v>
@@ -1864,7 +1865,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1</v>
@@ -1875,7 +1876,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>2</v>
@@ -1925,7 +1926,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>53</v>
@@ -1993,7 +1994,7 @@
         <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
@@ -2025,10 +2026,10 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2036,10 +2037,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" s="5"/>
     </row>
@@ -2062,7 +2063,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -2074,7 +2075,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>53</v>
@@ -2085,7 +2086,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
@@ -2111,7 +2112,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>1</v>
@@ -2124,7 +2125,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>53</v>
@@ -2133,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2150,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2158,10 +2159,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" t="s">
         <v>294</v>
-      </c>
-      <c r="C47" t="s">
-        <v>295</v>
       </c>
       <c r="D47" s="5"/>
     </row>
@@ -2170,7 +2171,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -2183,7 +2184,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>1</v>
@@ -2195,7 +2196,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -2206,7 +2207,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -2231,7 +2232,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -2242,7 +2243,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -2253,10 +2254,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E55" s="7"/>
     </row>
@@ -2301,10 +2302,10 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2312,10 +2313,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5"/>
@@ -2338,7 +2339,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -2349,7 +2350,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
         <v>53</v>
@@ -2371,7 +2372,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -2384,7 +2385,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
         <v>53</v>
@@ -2395,7 +2396,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>1</v>
@@ -2407,13 +2408,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2421,7 +2422,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>1</v>
@@ -2445,7 +2446,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>1</v>
@@ -2484,7 +2485,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>2</v>
@@ -2507,7 +2508,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
         <v>53</v>
@@ -2544,7 +2545,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -2555,7 +2556,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" t="s">
         <v>53</v>
@@ -2566,7 +2567,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -2577,7 +2578,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -2588,7 +2589,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C82" t="s">
         <v>53</v>
@@ -2613,7 +2614,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2644,10 +2645,10 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
+        <v>299</v>
+      </c>
+      <c r="F86" t="s">
         <v>300</v>
-      </c>
-      <c r="F86" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2655,7 +2656,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -2667,7 +2668,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
         <v>53</v>
@@ -2681,7 +2682,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>1</v>
@@ -2719,7 +2720,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
         <v>53</v>
@@ -2730,13 +2731,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" t="s">
         <v>290</v>
       </c>
-      <c r="C93" t="s">
-        <v>291</v>
-      </c>
       <c r="D93" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2744,7 +2745,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C94" t="s">
         <v>53</v>
@@ -2767,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2775,7 +2776,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -2835,7 +2836,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -2853,7 +2854,7 @@
         <v>53</v>
       </c>
       <c r="D102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
@@ -2875,7 +2876,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -2918,7 +2919,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>98</v>
@@ -2929,16 +2930,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E108" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2946,7 +2947,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -2957,7 +2958,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -2979,7 +2980,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -2991,7 +2992,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>2</v>
@@ -3015,7 +3016,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -3026,10 +3027,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E116" s="7"/>
     </row>
@@ -3050,7 +3051,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>2</v>
@@ -3062,7 +3063,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -3088,7 +3089,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -3113,7 +3114,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -3124,10 +3125,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C124" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3135,7 +3136,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -3146,7 +3147,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -3168,7 +3169,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>1</v>
@@ -3194,7 +3195,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>53</v>
@@ -3222,7 +3223,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>53</v>
@@ -3235,10 +3236,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E133" s="5"/>
     </row>
@@ -3247,7 +3248,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
@@ -3264,10 +3265,10 @@
         <v>16</v>
       </c>
       <c r="D135" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E135" t="s">
         <v>300</v>
-      </c>
-      <c r="E135" t="s">
-        <v>301</v>
       </c>
       <c r="F135" t="s">
         <v>2</v>
@@ -3278,7 +3279,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
@@ -3289,10 +3290,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -3302,7 +3303,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C138" t="s">
         <v>53</v>
@@ -3313,7 +3314,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C139" t="s">
         <v>53</v>
@@ -3325,10 +3326,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E140" s="5"/>
     </row>
@@ -3351,7 +3352,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>1</v>
@@ -3363,7 +3364,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -3374,7 +3375,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>1</v>
@@ -3386,10 +3387,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -3410,7 +3411,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
@@ -3421,7 +3422,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>2</v>
@@ -3440,7 +3441,7 @@
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3459,13 +3460,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C151" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D151" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E151" s="7"/>
     </row>
@@ -3474,10 +3475,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D152" s="5"/>
     </row>
@@ -3500,7 +3501,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
@@ -3511,7 +3512,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
@@ -3547,7 +3548,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -3558,7 +3559,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -3576,10 +3577,10 @@
         <v>16</v>
       </c>
       <c r="D160" t="s">
+        <v>299</v>
+      </c>
+      <c r="E160" t="s">
         <v>300</v>
-      </c>
-      <c r="E160" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -3593,10 +3594,10 @@
         <v>16</v>
       </c>
       <c r="D161" t="s">
+        <v>299</v>
+      </c>
+      <c r="E161" t="s">
         <v>300</v>
-      </c>
-      <c r="E161" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -3604,7 +3605,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
@@ -3616,7 +3617,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
@@ -3638,7 +3639,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
@@ -3658,13 +3659,13 @@
         <v>2</v>
       </c>
       <c r="E166" t="s">
+        <v>299</v>
+      </c>
+      <c r="F166" t="s">
         <v>300</v>
       </c>
-      <c r="F166" t="s">
-        <v>301</v>
-      </c>
       <c r="G166" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -3672,7 +3673,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
@@ -3683,7 +3684,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>2</v>
@@ -3700,7 +3701,7 @@
         <v>53</v>
       </c>
       <c r="D169" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -3714,13 +3715,13 @@
         <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E170" t="s">
+        <v>299</v>
+      </c>
+      <c r="F170" t="s">
         <v>300</v>
-      </c>
-      <c r="F170" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -3742,10 +3743,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -3753,7 +3754,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
@@ -3764,7 +3765,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
@@ -3776,7 +3777,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C175" t="s">
         <v>53</v>
@@ -3787,7 +3788,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
@@ -3798,7 +3799,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -3809,7 +3810,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C178" t="s">
         <v>53</v>
@@ -3820,7 +3821,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C179" t="s">
         <v>53</v>
@@ -3831,10 +3832,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C180" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -3842,10 +3843,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C181" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -3853,10 +3854,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C182" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -3864,7 +3865,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C183" t="s">
         <v>53</v>
@@ -3889,7 +3890,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -3914,19 +3915,19 @@
         <v>185</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E187" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F187" t="s">
         <v>300</v>
-      </c>
-      <c r="F187" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -3934,10 +3935,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -3945,10 +3946,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C189" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -3956,16 +3957,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C190" t="s">
+        <v>294</v>
+      </c>
+      <c r="D190" t="s">
+        <v>300</v>
+      </c>
+      <c r="E190" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="C190" t="s">
-        <v>295</v>
-      </c>
-      <c r="D190" t="s">
-        <v>301</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -3973,10 +3974,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C191" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E191" s="7"/>
     </row>
@@ -3999,10 +4000,10 @@
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D193" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -4010,7 +4011,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>1</v>
@@ -4021,10 +4022,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
+        <v>158</v>
+      </c>
+      <c r="C195" t="s">
         <v>159</v>
-      </c>
-      <c r="C195" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -4032,7 +4033,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
@@ -4043,10 +4044,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -4054,7 +4055,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C198" t="s">
         <v>53</v>
@@ -4077,7 +4078,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
@@ -4088,7 +4089,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C201" t="s">
         <v>53</v>
@@ -4099,13 +4100,13 @@
         <v>200</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C202" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D202" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E202" t="s">
         <v>2</v>
@@ -4116,7 +4117,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C203" t="s">
         <v>53</v>
@@ -4130,7 +4131,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
@@ -4153,7 +4154,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C206" t="s">
         <v>53</v>
@@ -4167,7 +4168,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>1</v>
@@ -4190,7 +4191,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
@@ -4201,7 +4202,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
@@ -4213,7 +4214,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C211" t="s">
         <v>53</v>
@@ -4250,7 +4251,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>1</v>
@@ -4261,7 +4262,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
@@ -4273,10 +4274,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E216" s="5"/>
     </row>
@@ -4299,7 +4300,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>1</v>
@@ -4310,7 +4311,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
@@ -4336,7 +4337,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>1</v>
@@ -4361,7 +4362,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>2</v>
@@ -4383,13 +4384,13 @@
         <v>223</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C225" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D225" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -4397,7 +4398,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
@@ -4408,7 +4409,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>1</v>
@@ -4431,13 +4432,13 @@
         <v>227</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C229" t="s">
         <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -4445,7 +4446,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>53</v>
@@ -4462,10 +4463,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C231" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -4473,7 +4474,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>53</v>
@@ -4487,7 +4488,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>2</v>
@@ -4498,7 +4499,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C234" t="s">
         <v>2</v>
@@ -4511,7 +4512,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
@@ -4522,13 +4523,13 @@
         <v>234</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E236" s="5"/>
     </row>
@@ -4548,10 +4549,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C238" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -4584,7 +4585,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C241" t="s">
         <v>2</v>
@@ -4595,10 +4596,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -4606,7 +4607,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
@@ -4634,7 +4635,7 @@
         <v>53</v>
       </c>
       <c r="D245" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -4642,10 +4643,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C246" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -4653,16 +4654,16 @@
         <v>245</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E247" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -4698,7 +4699,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C250" t="s">
         <v>1</v>
@@ -4720,7 +4721,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>1</v>
@@ -4756,7 +4757,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
@@ -4767,13 +4768,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256" t="s">
         <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -4781,7 +4782,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
@@ -4817,7 +4818,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>53</v>
@@ -4834,7 +4835,7 @@
         <v>53</v>
       </c>
       <c r="D261" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E261" t="s">
         <v>2</v>
@@ -4845,7 +4846,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>2</v>
@@ -4856,13 +4857,13 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D263" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -4870,7 +4871,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>1</v>
@@ -4882,7 +4883,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -4893,7 +4894,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
@@ -4904,7 +4905,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>53</v>
@@ -4915,7 +4916,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>1</v>
@@ -4926,10 +4927,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
+        <v>148</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D269" t="s">
         <v>2</v>
@@ -4940,7 +4941,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
@@ -4951,10 +4952,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -4962,10 +4963,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -4976,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D273" s="7"/>
     </row>
@@ -4988,10 +4989,10 @@
         <v>4</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E274" s="5"/>
     </row>
@@ -5003,7 +5004,7 @@
         <v>6</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D275" s="7"/>
     </row>
@@ -5012,10 +5013,10 @@
         <v>274</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D276" s="7"/>
     </row>
@@ -5024,10 +5025,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D277" s="7"/>
     </row>
@@ -5036,7 +5037,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>2</v>
@@ -5048,7 +5049,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>98</v>
@@ -5074,7 +5075,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>2</v>
@@ -5098,7 +5099,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>1</v>
@@ -5123,7 +5124,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>53</v>
@@ -5135,7 +5136,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>1</v>
@@ -5175,7 +5176,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>1</v>
@@ -5186,7 +5187,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>1</v>
@@ -5197,7 +5198,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>1</v>
@@ -5208,7 +5209,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>1</v>
@@ -5219,7 +5220,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>1</v>
@@ -5230,7 +5231,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>2</v>
@@ -5241,7 +5242,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>2</v>
@@ -5253,7 +5254,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>1</v>
@@ -5264,7 +5265,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>53</v>
@@ -5289,7 +5290,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>53</v>
@@ -5303,7 +5304,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>2</v>
@@ -5315,13 +5316,13 @@
         <v>299</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -5335,10 +5336,10 @@
         <v>16</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -5355,10 +5356,10 @@
         <v>2</v>
       </c>
       <c r="E303" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -5371,14 +5372,16 @@
       <c r="C304" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D304" s="7"/>
+      <c r="D304" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="6">
         <v>303</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>1</v>
@@ -5402,7 +5405,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>2</v>
@@ -5414,7 +5417,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>116</v>
+        <v>337</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>53</v>
@@ -5429,7 +5432,7 @@
         <v>1181718255</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D309" s="5"/>
     </row>
@@ -5453,10 +5456,10 @@
         <v>1165774571</v>
       </c>
       <c r="C311" t="s">
+        <v>322</v>
+      </c>
+      <c r="D311" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="D311" s="5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -5488,19 +5491,19 @@
         <v>312</v>
       </c>
       <c r="B314" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C314" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C314" s="5" t="s">
+      <c r="D314" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E314" t="s">
         <v>327</v>
       </c>
-      <c r="D314" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E314" t="s">
+      <c r="F314" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="F314" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -5508,13 +5511,13 @@
         <v>313</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C315" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -5522,13 +5525,13 @@
         <v>314</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E316" s="7"/>
     </row>
@@ -5537,13 +5540,13 @@
         <v>315</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -5551,10 +5554,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C318" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -5562,13 +5565,13 @@
         <v>317</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
